--- a/CRONOGRAMA DE TURISMO FINAL - RICHARD - ECONOMISTA.xlsx
+++ b/CRONOGRAMA DE TURISMO FINAL - RICHARD - ECONOMISTA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ORFEI - 2020\CRONOGRAMAS - PROYECTO DE INVERSIÓN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEL\Documents\RepositorioORFEI\Gestion-ORFEI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B3397A-E392-498A-86DF-42C2B5FA0169}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA3E6C4-9971-413A-A8B4-E46993C10C48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="corregido" sheetId="7" r:id="rId1"/>
@@ -748,18 +748,6 @@
     <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -772,8 +760,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -832,8 +832,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9067800" y="4686300"/>
-          <a:ext cx="2990851" cy="238111"/>
+          <a:off x="9296400" y="4282440"/>
+          <a:ext cx="3021331" cy="238111"/>
           <a:chOff x="3955676" y="8354641"/>
           <a:chExt cx="6442775" cy="149905"/>
         </a:xfrm>
@@ -1486,104 +1486,104 @@
   <dimension ref="A1:CW639"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <pane ySplit="6" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="22"/>
-    <col min="2" max="2" width="51.85546875" style="23" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="22"/>
+    <col min="2" max="2" width="51.88671875" style="23" customWidth="1"/>
     <col min="3" max="3" width="32" style="23" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="23" customWidth="1"/>
-    <col min="5" max="34" width="2.7109375" style="23" customWidth="1"/>
-    <col min="35" max="101" width="11.42578125" style="22"/>
-    <col min="102" max="16384" width="11.42578125" style="23"/>
+    <col min="4" max="4" width="15.6640625" style="23" customWidth="1"/>
+    <col min="5" max="34" width="2.6640625" style="23" customWidth="1"/>
+    <col min="35" max="101" width="11.44140625" style="22"/>
+    <col min="102" max="16384" width="11.44140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="51" t="s">
+    <row r="1" spans="2:36" ht="18" x14ac:dyDescent="0.35">
+      <c r="B1" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-    </row>
-    <row r="2" spans="2:36" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+    </row>
+    <row r="2" spans="2:36" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="54" t="s">
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="56" t="s">
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="58"/>
-    </row>
-    <row r="4" spans="2:36" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="54"/>
+    </row>
+    <row r="4" spans="2:36" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="11" t="s">
         <v>0</v>
       </c>
@@ -1675,12 +1675,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:36" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="52" t="s">
+    <row r="5" spans="2:36" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="10">
         <v>8</v>
       </c>
@@ -1772,54 +1772,54 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52" t="s">
+    <row r="6" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="52" t="s">
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="52" t="s">
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="52" t="s">
+      <c r="T6" s="55"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="52"/>
-      <c r="AC6" s="52"/>
-      <c r="AD6" s="52"/>
-      <c r="AE6" s="53"/>
-      <c r="AF6" s="53"/>
-      <c r="AG6" s="52" t="s">
+      <c r="AA6" s="55"/>
+      <c r="AB6" s="55"/>
+      <c r="AC6" s="55"/>
+      <c r="AD6" s="55"/>
+      <c r="AE6" s="56"/>
+      <c r="AF6" s="56"/>
+      <c r="AG6" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="AH6" s="52"/>
+      <c r="AH6" s="55"/>
       <c r="AI6" s="14"/>
       <c r="AJ6" s="15"/>
     </row>
-    <row r="7" spans="2:36" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:36" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
         <v>64</v>
       </c>
@@ -1860,7 +1860,7 @@
       <c r="AG7" s="26"/>
       <c r="AH7" s="26"/>
     </row>
-    <row r="8" spans="2:36" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:36" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="35" t="s">
         <v>75</v>
       </c>
@@ -1899,7 +1899,7 @@
       <c r="AG8" s="33"/>
       <c r="AH8" s="33"/>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>35</v>
       </c>
@@ -1942,7 +1942,7 @@
       <c r="AG9" s="26"/>
       <c r="AH9" s="26"/>
     </row>
-    <row r="10" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>51</v>
       </c>
@@ -1981,7 +1981,7 @@
       <c r="AG10" s="26"/>
       <c r="AH10" s="26"/>
     </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B11" s="21" t="s">
         <v>52</v>
       </c>
@@ -2026,7 +2026,7 @@
       <c r="AG11" s="26"/>
       <c r="AH11" s="26"/>
     </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B12" s="21" t="s">
         <v>53</v>
       </c>
@@ -2075,7 +2075,7 @@
       <c r="AG12" s="26"/>
       <c r="AH12" s="26"/>
     </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
         <v>54</v>
       </c>
@@ -2118,7 +2118,7 @@
       <c r="AG13" s="26"/>
       <c r="AH13" s="26"/>
     </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
         <v>20</v>
       </c>
@@ -2157,7 +2157,7 @@
       <c r="AG14" s="26"/>
       <c r="AH14" s="26"/>
     </row>
-    <row r="15" spans="2:36" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:36" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="43" t="s">
         <v>22</v>
       </c>
@@ -2196,7 +2196,7 @@
       <c r="AG15" s="46"/>
       <c r="AH15" s="46"/>
     </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B16" s="30" t="s">
         <v>65</v>
       </c>
@@ -2236,7 +2236,7 @@
       <c r="AG16" s="25"/>
       <c r="AH16" s="25"/>
     </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B17" s="30" t="s">
         <v>67</v>
       </c>
@@ -2279,7 +2279,7 @@
       <c r="AG17" s="25"/>
       <c r="AH17" s="25"/>
     </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B18" s="30" t="s">
         <v>66</v>
       </c>
@@ -2322,7 +2322,7 @@
       <c r="AG18" s="25"/>
       <c r="AH18" s="25"/>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B19" s="30" t="s">
         <v>55</v>
       </c>
@@ -2363,7 +2363,7 @@
       <c r="AG19" s="25"/>
       <c r="AH19" s="25"/>
     </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
@@ -2403,7 +2403,7 @@
       <c r="AG20" s="25"/>
       <c r="AH20" s="25"/>
     </row>
-    <row r="21" spans="2:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="43" t="s">
         <v>98</v>
       </c>
@@ -2442,7 +2442,7 @@
       <c r="AG21" s="46"/>
       <c r="AH21" s="46"/>
     </row>
-    <row r="22" spans="2:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>23</v>
       </c>
@@ -2479,7 +2479,7 @@
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
     </row>
-    <row r="23" spans="2:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="30" t="s">
         <v>57</v>
       </c>
@@ -2520,7 +2520,7 @@
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
     </row>
-    <row r="24" spans="2:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="30" t="s">
         <v>58</v>
       </c>
@@ -2561,7 +2561,7 @@
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
     </row>
-    <row r="25" spans="2:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="30" t="s">
         <v>59</v>
       </c>
@@ -2602,7 +2602,7 @@
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
     </row>
-    <row r="26" spans="2:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="30" t="s">
         <v>60</v>
       </c>
@@ -2643,7 +2643,7 @@
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
     </row>
-    <row r="27" spans="2:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="30" t="s">
         <v>102</v>
       </c>
@@ -2684,7 +2684,7 @@
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
     </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B28" s="30" t="s">
         <v>61</v>
       </c>
@@ -2725,7 +2725,7 @@
       <c r="AG28" s="32"/>
       <c r="AH28" s="19"/>
     </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B29" s="30" t="s">
         <v>25</v>
       </c>
@@ -2766,7 +2766,7 @@
       <c r="AG29" s="32"/>
       <c r="AH29" s="19"/>
     </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B30" s="30" t="s">
         <v>62</v>
       </c>
@@ -2807,7 +2807,7 @@
       <c r="AG30" s="32"/>
       <c r="AH30" s="19"/>
     </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B31" s="30" t="s">
         <v>26</v>
       </c>
@@ -2848,7 +2848,7 @@
       <c r="AG31" s="32"/>
       <c r="AH31" s="19"/>
     </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B32" s="30" t="s">
         <v>27</v>
       </c>
@@ -2889,7 +2889,7 @@
       <c r="AG32" s="32"/>
       <c r="AH32" s="19"/>
     </row>
-    <row r="33" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B33" s="30" t="s">
         <v>28</v>
       </c>
@@ -2948,7 +2948,7 @@
       <c r="AG33" s="32"/>
       <c r="AH33" s="19"/>
     </row>
-    <row r="34" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B34" s="30" t="s">
         <v>29</v>
       </c>
@@ -2989,7 +2989,7 @@
       <c r="AG34" s="32"/>
       <c r="AH34" s="19"/>
     </row>
-    <row r="35" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B35" s="30" t="s">
         <v>30</v>
       </c>
@@ -3030,7 +3030,7 @@
       <c r="AG35" s="32"/>
       <c r="AH35" s="19"/>
     </row>
-    <row r="36" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B36" s="30" t="s">
         <v>31</v>
       </c>
@@ -3071,7 +3071,7 @@
       <c r="AG36" s="32"/>
       <c r="AH36" s="19"/>
     </row>
-    <row r="37" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B37" s="30" t="s">
         <v>32</v>
       </c>
@@ -3112,7 +3112,7 @@
       </c>
       <c r="AH37" s="28"/>
     </row>
-    <row r="38" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B38" s="30" t="s">
         <v>10</v>
       </c>
@@ -3191,7 +3191,7 @@
       <c r="AG38" s="32"/>
       <c r="AH38" s="28"/>
     </row>
-    <row r="39" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B39" s="30" t="s">
         <v>11</v>
       </c>
@@ -3240,7 +3240,7 @@
       <c r="AG39" s="32"/>
       <c r="AH39" s="28"/>
     </row>
-    <row r="40" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B40" s="30" t="s">
         <v>12</v>
       </c>
@@ -3319,7 +3319,7 @@
       <c r="AG40" s="32"/>
       <c r="AH40" s="28"/>
     </row>
-    <row r="41" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>69</v>
       </c>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="AH41" s="28"/>
     </row>
-    <row r="42" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B42" s="35" t="s">
         <v>78</v>
       </c>
@@ -3399,7 +3399,7 @@
       <c r="AG42" s="33"/>
       <c r="AH42" s="33"/>
     </row>
-    <row r="43" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B43" s="31" t="s">
         <v>73</v>
       </c>
@@ -3444,7 +3444,7 @@
       <c r="AG43" s="32"/>
       <c r="AH43" s="28"/>
     </row>
-    <row r="44" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B44" s="35" t="s">
         <v>89</v>
       </c>
@@ -3483,7 +3483,7 @@
       <c r="AG44" s="33"/>
       <c r="AH44" s="33"/>
     </row>
-    <row r="45" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B45" s="31" t="s">
         <v>74</v>
       </c>
@@ -3526,7 +3526,7 @@
       <c r="AG45" s="32"/>
       <c r="AH45" s="28"/>
     </row>
-    <row r="46" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B46" s="35" t="s">
         <v>90</v>
       </c>
@@ -3565,7 +3565,7 @@
       <c r="AG46" s="33"/>
       <c r="AH46" s="33"/>
     </row>
-    <row r="47" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B47" s="38" t="s">
         <v>85</v>
       </c>
@@ -3626,7 +3626,7 @@
       </c>
       <c r="AH47" s="28"/>
     </row>
-    <row r="48" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B48" s="38" t="s">
         <v>86</v>
       </c>
@@ -3679,7 +3679,7 @@
       <c r="AG48" s="32"/>
       <c r="AH48" s="28"/>
     </row>
-    <row r="49" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B49" s="35" t="s">
         <v>91</v>
       </c>
@@ -3718,7 +3718,7 @@
       <c r="AG49" s="33"/>
       <c r="AH49" s="33"/>
     </row>
-    <row r="50" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B50" s="30" t="s">
         <v>10</v>
       </c>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="AH50" s="28"/>
     </row>
-    <row r="51" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B51" s="30" t="s">
         <v>11</v>
       </c>
@@ -3848,7 +3848,7 @@
       <c r="AG51" s="32"/>
       <c r="AH51" s="28"/>
     </row>
-    <row r="52" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B52" s="30" t="s">
         <v>12</v>
       </c>
@@ -3927,7 +3927,7 @@
       <c r="AG52" s="32"/>
       <c r="AH52" s="28"/>
     </row>
-    <row r="53" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>69</v>
       </c>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="AH53" s="28"/>
     </row>
-    <row r="54" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B54" s="35" t="s">
         <v>92</v>
       </c>
@@ -4009,7 +4009,7 @@
       <c r="AG54" s="33"/>
       <c r="AH54" s="33"/>
     </row>
-    <row r="55" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>87</v>
       </c>
@@ -4068,7 +4068,7 @@
       <c r="AG55" s="32"/>
       <c r="AH55" s="28"/>
     </row>
-    <row r="56" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B56" s="35" t="s">
         <v>93</v>
       </c>
@@ -4107,7 +4107,7 @@
       <c r="AG56" s="33"/>
       <c r="AH56" s="33"/>
     </row>
-    <row r="57" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
         <v>94</v>
       </c>
@@ -4148,7 +4148,7 @@
       <c r="AG57" s="32"/>
       <c r="AH57" s="28"/>
     </row>
-    <row r="58" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
         <v>95</v>
       </c>
@@ -4189,7 +4189,7 @@
       <c r="AG58" s="32"/>
       <c r="AH58" s="28"/>
     </row>
-    <row r="59" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B59" s="47" t="s">
         <v>96</v>
       </c>
@@ -4228,7 +4228,7 @@
       <c r="AG59" s="46"/>
       <c r="AH59" s="46"/>
     </row>
-    <row r="60" spans="2:34" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:34" s="22" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B60" s="20" t="s">
         <v>14</v>
       </c>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="D60" s="20"/>
     </row>
-    <row r="61" spans="2:34" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:34" s="22" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B61" s="20" t="s">
         <v>15</v>
       </c>
@@ -4246,7 +4246,7 @@
       </c>
       <c r="D61" s="20"/>
     </row>
-    <row r="62" spans="2:34" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:34" s="22" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B62" s="20" t="s">
         <v>14</v>
       </c>
@@ -4255,634 +4255,627 @@
       </c>
       <c r="D62" s="20"/>
     </row>
-    <row r="63" spans="2:34" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:34" s="22" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B63" s="20"/>
       <c r="C63" s="20" t="s">
         <v>47</v>
       </c>
       <c r="D63" s="20"/>
     </row>
-    <row r="64" spans="2:34" s="22" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="55" t="s">
+    <row r="64" spans="2:34" s="22" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="C64" s="55"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="55"/>
-      <c r="F64" s="55"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="55"/>
-      <c r="I64" s="55"/>
-      <c r="J64" s="55"/>
-      <c r="K64" s="55"/>
-      <c r="L64" s="55"/>
-      <c r="M64" s="55"/>
-      <c r="N64" s="55"/>
-      <c r="O64" s="55"/>
-      <c r="P64" s="55"/>
-      <c r="Q64" s="55"/>
-      <c r="R64" s="55"/>
-      <c r="S64" s="55"/>
-      <c r="T64" s="55"/>
-      <c r="U64" s="55"/>
-      <c r="V64" s="55"/>
-      <c r="W64" s="55"/>
-      <c r="X64" s="55"/>
-      <c r="Y64" s="55"/>
-      <c r="Z64" s="55"/>
-      <c r="AA64" s="55"/>
-      <c r="AB64" s="55"/>
-      <c r="AC64" s="55"/>
-      <c r="AD64" s="55"/>
-    </row>
-    <row r="65" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="51"/>
+      <c r="J64" s="51"/>
+      <c r="K64" s="51"/>
+      <c r="L64" s="51"/>
+      <c r="M64" s="51"/>
+      <c r="N64" s="51"/>
+      <c r="O64" s="51"/>
+      <c r="P64" s="51"/>
+      <c r="Q64" s="51"/>
+      <c r="R64" s="51"/>
+      <c r="S64" s="51"/>
+      <c r="T64" s="51"/>
+      <c r="U64" s="51"/>
+      <c r="V64" s="51"/>
+      <c r="W64" s="51"/>
+      <c r="X64" s="51"/>
+      <c r="Y64" s="51"/>
+      <c r="Z64" s="51"/>
+      <c r="AA64" s="51"/>
+      <c r="AB64" s="51"/>
+      <c r="AC64" s="51"/>
+      <c r="AD64" s="51"/>
+    </row>
+    <row r="65" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="29"/>
       <c r="C65" s="29"/>
       <c r="D65" s="29"/>
     </row>
-    <row r="66" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="114" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="120" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="122" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="124" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="125" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="126" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="127" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="128" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="129" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="130" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="131" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="132" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="133" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="134" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="135" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="136" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="137" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="138" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="139" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="140" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="141" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="142" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="143" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="144" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="145" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="146" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="147" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="148" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="149" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="150" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="151" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="152" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="153" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="154" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="155" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="156" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="157" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="158" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="159" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="160" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="161" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="162" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="163" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="164" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="165" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="166" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="167" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="168" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="169" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="170" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="171" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="172" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="173" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="174" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="175" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="176" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="177" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="178" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="179" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="180" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="181" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="182" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="183" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="184" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="185" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="186" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="187" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="188" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="189" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="190" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="191" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="192" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="193" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="194" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="195" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="196" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="197" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="198" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="199" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="200" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="201" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="202" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="203" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="204" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="205" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="206" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="207" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="208" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="209" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="210" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="211" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="212" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="213" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="214" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="215" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="216" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="217" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="218" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="219" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="220" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="221" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="222" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="223" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="224" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="225" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="226" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="227" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="228" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="229" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="230" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="231" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="232" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="233" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="234" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="235" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="236" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="237" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="238" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="239" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="240" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="241" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="242" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="243" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="244" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="245" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="246" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="247" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="248" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="249" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="250" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="251" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="252" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="253" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="254" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="255" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="256" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="257" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="258" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="259" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="260" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="261" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="262" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="263" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="264" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="265" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="266" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="267" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="268" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="269" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="270" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="271" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="272" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="273" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="274" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="275" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="276" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="277" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="278" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="279" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="280" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="281" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="282" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="283" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="284" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="285" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="286" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="287" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="288" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="289" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="290" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="291" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="292" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="293" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="294" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="295" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="296" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="297" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="298" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="299" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="300" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="301" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="302" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="303" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="304" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="305" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="306" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="307" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="308" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="309" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="310" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="311" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="312" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="313" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="314" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="315" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="316" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="317" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="318" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="319" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="320" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="321" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="322" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="323" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="324" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="325" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="326" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="327" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="328" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="329" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="330" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="331" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="332" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="333" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="334" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="335" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="336" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="337" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="338" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="339" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="340" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="341" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="342" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="343" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="344" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="345" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="346" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="347" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="348" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="349" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="350" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="351" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="352" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="353" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="354" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="355" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="356" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="357" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="358" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="359" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="360" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="361" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="362" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="363" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="364" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="365" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="366" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="367" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="368" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="369" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="370" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="371" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="372" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="373" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="374" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="375" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="376" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="377" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="378" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="379" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="380" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="381" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="382" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="383" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="384" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="385" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="386" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="387" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="388" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="389" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="390" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="391" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="392" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="393" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="394" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="395" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="396" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="397" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="398" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="399" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="400" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="401" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="402" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="403" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="404" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="405" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="406" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="407" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="408" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="409" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="410" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="411" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="412" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="413" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="414" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="415" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="416" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="417" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="418" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="419" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="420" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="421" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="422" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="423" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="424" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="425" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="426" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="427" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="428" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="429" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="430" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="431" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="432" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="433" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="434" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="435" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="436" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="437" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="438" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="439" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="440" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="441" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="442" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="443" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="444" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="445" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="446" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="447" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="448" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="449" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="450" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="451" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="452" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="453" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="454" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="455" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="456" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="457" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="458" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="459" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="460" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="461" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="462" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="463" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="464" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="465" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="466" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="467" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="468" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="469" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="470" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="471" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="472" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="473" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="474" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="475" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="476" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="477" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="478" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="479" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="480" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="481" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="482" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="483" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="484" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="485" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="486" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="487" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="488" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="489" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="490" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="491" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="492" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="493" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="494" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="495" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="496" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="497" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="498" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="499" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="500" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="501" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="502" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="503" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="504" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="505" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="506" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="507" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="508" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="509" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="510" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="511" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="512" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="513" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="514" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="515" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="516" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="517" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="518" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="519" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="520" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="521" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="522" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="523" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="524" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="525" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="526" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="527" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="528" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="529" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="530" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="531" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="532" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="533" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="534" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="535" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="536" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="537" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="538" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="539" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="540" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="541" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="542" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="543" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="544" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="545" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="546" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="547" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="548" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="549" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="550" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="551" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="552" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="553" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="554" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="555" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="556" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="557" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="558" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="559" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="560" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="561" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="562" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="563" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="564" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="565" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="566" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="567" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="568" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="569" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="570" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="571" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="572" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="573" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="574" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="575" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="576" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="577" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="578" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="579" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="580" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="581" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="582" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="583" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="584" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="585" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="586" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="587" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="588" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="589" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="590" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="591" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="592" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="593" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="594" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="595" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="596" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="597" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="598" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="599" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="600" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="601" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="602" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="603" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="604" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="605" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="606" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="607" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="608" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="609" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="610" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="611" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="612" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="613" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="614" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="615" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="616" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="617" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="618" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="619" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="620" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="621" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="622" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="623" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="624" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="625" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="626" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="627" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="628" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="629" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="630" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="631" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="632" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="633" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="634" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="635" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="636" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="637" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="638" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="639" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="246" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="247" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="248" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="250" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="251" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="252" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="253" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="254" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="255" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="256" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="257" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="258" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="259" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="260" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="261" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="262" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="263" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="264" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="265" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="266" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="267" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="268" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="269" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="270" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="271" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="272" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="273" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="274" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="275" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="276" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="277" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="278" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="279" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="280" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="281" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="282" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="283" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="284" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="285" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="286" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="287" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="288" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="289" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="290" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="291" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="292" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="293" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="294" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="295" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="296" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="297" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="298" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="299" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="300" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="301" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="302" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="303" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="304" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="305" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="306" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="307" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="308" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="309" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="310" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="311" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="312" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="313" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="314" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="315" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="316" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="317" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="318" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="319" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="320" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="321" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="322" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="323" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="324" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="325" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="326" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="327" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="328" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="329" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="330" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="331" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="332" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="333" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="334" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="335" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="336" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="337" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="338" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="339" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="340" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="341" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="342" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="343" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="344" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="345" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="346" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="347" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="348" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="349" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="350" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="351" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="352" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="353" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="354" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="355" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="356" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="357" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="358" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="359" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="360" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="361" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="362" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="363" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="364" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="365" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="366" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="367" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="368" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="369" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="370" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="371" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="372" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="373" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="374" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="375" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="376" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="377" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="378" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="379" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="380" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="381" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="382" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="383" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="384" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="385" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="386" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="387" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="388" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="389" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="390" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="391" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="392" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="393" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="394" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="395" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="396" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="397" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="398" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="399" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="400" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="401" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="402" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="403" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="404" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="405" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="406" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="407" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="408" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="409" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="410" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="411" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="412" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="413" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="414" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="415" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="416" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="417" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="418" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="419" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="420" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="421" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="422" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="423" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="424" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="425" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="426" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="427" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="428" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="429" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="430" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="431" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="432" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="433" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="434" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="435" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="436" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="437" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="438" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="439" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="440" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="441" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="442" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="443" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="444" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="445" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="446" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="447" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="448" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="449" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="450" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="451" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="452" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="453" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="454" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="455" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="456" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="457" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="458" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="459" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="460" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="461" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="462" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="463" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="464" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="465" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="466" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="467" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="468" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="469" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="470" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="471" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="472" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="473" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="474" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="475" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="476" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="477" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="478" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="479" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="480" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="481" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="482" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="483" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="484" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="485" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="486" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="487" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="488" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="489" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="490" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="491" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="492" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="493" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="494" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="495" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="496" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="497" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="498" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="499" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="500" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="501" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="502" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="503" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="504" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="505" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="506" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="507" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="508" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="509" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="510" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="511" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="512" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="513" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="514" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="515" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="516" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="517" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="518" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="519" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="520" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="521" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="522" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="523" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="524" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="525" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="526" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="527" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="528" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="529" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="530" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="531" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="532" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="533" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="534" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="535" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="536" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="537" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="538" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="539" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="540" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="541" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="542" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="543" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="544" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="545" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="546" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="547" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="548" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="549" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="550" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="551" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="552" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="553" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="554" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="555" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="556" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="557" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="558" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="559" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="560" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="561" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="562" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="563" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="564" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="565" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="566" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="567" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="568" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="569" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="570" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="571" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="572" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="573" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="574" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="575" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="576" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="577" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="578" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="579" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="580" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="581" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="582" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="583" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="584" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="585" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="586" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="587" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="588" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="589" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="590" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="591" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="592" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="593" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="594" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="595" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="596" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="597" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="598" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="599" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="600" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="601" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="602" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="603" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="604" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="605" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="606" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="607" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="608" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="609" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="610" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="611" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="612" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="613" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="614" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="615" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="616" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="617" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="618" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="619" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="620" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="621" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="622" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="623" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="624" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="625" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="626" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="627" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="628" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="629" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="630" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="631" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="632" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="633" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="634" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="635" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="636" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="637" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="638" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="639" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B64:AD64"/>
-    <mergeCell ref="AC3:AH3"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="B3:D4"/>
     <mergeCell ref="B1:AH1"/>
     <mergeCell ref="B5:D6"/>
     <mergeCell ref="S6:W6"/>
@@ -4891,6 +4884,13 @@
     <mergeCell ref="AE6:AF6"/>
     <mergeCell ref="AG6:AH6"/>
     <mergeCell ref="E3:AB3"/>
+    <mergeCell ref="B64:AD64"/>
+    <mergeCell ref="AC3:AH3"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="B3:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/CRONOGRAMA DE TURISMO FINAL - RICHARD - ECONOMISTA.xlsx
+++ b/CRONOGRAMA DE TURISMO FINAL - RICHARD - ECONOMISTA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEL\Documents\RepositorioORFEI\Gestion-ORFEI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI\Gestion-ORFEI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA3E6C4-9971-413A-A8B4-E46993C10C48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAE09D8-356E-46B7-BD34-0821192D062F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3960" windowWidth="13800" windowHeight="9495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="corregido" sheetId="7" r:id="rId1"/>
@@ -748,6 +748,18 @@
     <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -760,20 +772,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -832,8 +832,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9296400" y="4282440"/>
-          <a:ext cx="3021331" cy="238111"/>
+          <a:off x="9067800" y="4686300"/>
+          <a:ext cx="2990851" cy="238111"/>
           <a:chOff x="3955676" y="8354641"/>
           <a:chExt cx="6442775" cy="149905"/>
         </a:xfrm>
@@ -1486,104 +1486,104 @@
   <dimension ref="A1:CW639"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="22"/>
-    <col min="2" max="2" width="51.88671875" style="23" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="22"/>
+    <col min="2" max="2" width="51.85546875" style="23" customWidth="1"/>
     <col min="3" max="3" width="32" style="23" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="23" customWidth="1"/>
-    <col min="5" max="34" width="2.6640625" style="23" customWidth="1"/>
-    <col min="35" max="101" width="11.44140625" style="22"/>
-    <col min="102" max="16384" width="11.44140625" style="23"/>
+    <col min="4" max="4" width="15.7109375" style="23" customWidth="1"/>
+    <col min="5" max="34" width="2.7109375" style="23" customWidth="1"/>
+    <col min="35" max="101" width="11.42578125" style="22"/>
+    <col min="102" max="16384" width="11.42578125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" ht="18" x14ac:dyDescent="0.35">
-      <c r="B1" s="58" t="s">
+    <row r="1" spans="2:36" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-    </row>
-    <row r="2" spans="2:36" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+    </row>
+    <row r="2" spans="2:36" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="59" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="52" t="s">
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="54"/>
-    </row>
-    <row r="4" spans="2:36" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="58"/>
+    </row>
+    <row r="4" spans="2:36" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="11" t="s">
         <v>0</v>
       </c>
@@ -1675,12 +1675,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:36" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="55" t="s">
+    <row r="5" spans="2:36" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="10">
         <v>8</v>
       </c>
@@ -1772,54 +1772,54 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55" t="s">
+    <row r="6" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="55" t="s">
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="55" t="s">
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="T6" s="55"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="55" t="s">
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="AA6" s="55"/>
-      <c r="AB6" s="55"/>
-      <c r="AC6" s="55"/>
-      <c r="AD6" s="55"/>
-      <c r="AE6" s="56"/>
-      <c r="AF6" s="56"/>
-      <c r="AG6" s="55" t="s">
+      <c r="AA6" s="52"/>
+      <c r="AB6" s="52"/>
+      <c r="AC6" s="52"/>
+      <c r="AD6" s="52"/>
+      <c r="AE6" s="53"/>
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="AH6" s="55"/>
+      <c r="AH6" s="52"/>
       <c r="AI6" s="14"/>
       <c r="AJ6" s="15"/>
     </row>
-    <row r="7" spans="2:36" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:36" ht="25.5" x14ac:dyDescent="0.3">
       <c r="B7" s="18" t="s">
         <v>64</v>
       </c>
@@ -1860,7 +1860,7 @@
       <c r="AG7" s="26"/>
       <c r="AH7" s="26"/>
     </row>
-    <row r="8" spans="2:36" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:36" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="35" t="s">
         <v>75</v>
       </c>
@@ -1899,7 +1899,7 @@
       <c r="AG8" s="33"/>
       <c r="AH8" s="33"/>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>35</v>
       </c>
@@ -1942,7 +1942,7 @@
       <c r="AG9" s="26"/>
       <c r="AH9" s="26"/>
     </row>
-    <row r="10" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>51</v>
       </c>
@@ -1981,7 +1981,7 @@
       <c r="AG10" s="26"/>
       <c r="AH10" s="26"/>
     </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B11" s="21" t="s">
         <v>52</v>
       </c>
@@ -2026,7 +2026,7 @@
       <c r="AG11" s="26"/>
       <c r="AH11" s="26"/>
     </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
         <v>53</v>
       </c>
@@ -2075,7 +2075,7 @@
       <c r="AG12" s="26"/>
       <c r="AH12" s="26"/>
     </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>54</v>
       </c>
@@ -2118,7 +2118,7 @@
       <c r="AG13" s="26"/>
       <c r="AH13" s="26"/>
     </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B14" s="21" t="s">
         <v>20</v>
       </c>
@@ -2157,7 +2157,7 @@
       <c r="AG14" s="26"/>
       <c r="AH14" s="26"/>
     </row>
-    <row r="15" spans="2:36" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:36" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="43" t="s">
         <v>22</v>
       </c>
@@ -2196,7 +2196,7 @@
       <c r="AG15" s="46"/>
       <c r="AH15" s="46"/>
     </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B16" s="30" t="s">
         <v>65</v>
       </c>
@@ -2236,7 +2236,7 @@
       <c r="AG16" s="25"/>
       <c r="AH16" s="25"/>
     </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B17" s="30" t="s">
         <v>67</v>
       </c>
@@ -2279,7 +2279,7 @@
       <c r="AG17" s="25"/>
       <c r="AH17" s="25"/>
     </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B18" s="30" t="s">
         <v>66</v>
       </c>
@@ -2322,7 +2322,7 @@
       <c r="AG18" s="25"/>
       <c r="AH18" s="25"/>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B19" s="30" t="s">
         <v>55</v>
       </c>
@@ -2363,7 +2363,7 @@
       <c r="AG19" s="25"/>
       <c r="AH19" s="25"/>
     </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
@@ -2403,7 +2403,7 @@
       <c r="AG20" s="25"/>
       <c r="AH20" s="25"/>
     </row>
-    <row r="21" spans="2:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="43" t="s">
         <v>98</v>
       </c>
@@ -2442,7 +2442,7 @@
       <c r="AG21" s="46"/>
       <c r="AH21" s="46"/>
     </row>
-    <row r="22" spans="2:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>23</v>
       </c>
@@ -2479,7 +2479,7 @@
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
     </row>
-    <row r="23" spans="2:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="30" t="s">
         <v>57</v>
       </c>
@@ -2520,7 +2520,7 @@
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
     </row>
-    <row r="24" spans="2:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="30" t="s">
         <v>58</v>
       </c>
@@ -2561,7 +2561,7 @@
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
     </row>
-    <row r="25" spans="2:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="30" t="s">
         <v>59</v>
       </c>
@@ -2602,7 +2602,7 @@
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
     </row>
-    <row r="26" spans="2:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="30" t="s">
         <v>60</v>
       </c>
@@ -2643,7 +2643,7 @@
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
     </row>
-    <row r="27" spans="2:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="30" t="s">
         <v>102</v>
       </c>
@@ -2684,7 +2684,7 @@
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
     </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B28" s="30" t="s">
         <v>61</v>
       </c>
@@ -2725,7 +2725,7 @@
       <c r="AG28" s="32"/>
       <c r="AH28" s="19"/>
     </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B29" s="30" t="s">
         <v>25</v>
       </c>
@@ -2766,7 +2766,7 @@
       <c r="AG29" s="32"/>
       <c r="AH29" s="19"/>
     </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B30" s="30" t="s">
         <v>62</v>
       </c>
@@ -2807,7 +2807,7 @@
       <c r="AG30" s="32"/>
       <c r="AH30" s="19"/>
     </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B31" s="30" t="s">
         <v>26</v>
       </c>
@@ -2848,7 +2848,7 @@
       <c r="AG31" s="32"/>
       <c r="AH31" s="19"/>
     </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B32" s="30" t="s">
         <v>27</v>
       </c>
@@ -2889,7 +2889,7 @@
       <c r="AG32" s="32"/>
       <c r="AH32" s="19"/>
     </row>
-    <row r="33" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B33" s="30" t="s">
         <v>28</v>
       </c>
@@ -2948,7 +2948,7 @@
       <c r="AG33" s="32"/>
       <c r="AH33" s="19"/>
     </row>
-    <row r="34" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B34" s="30" t="s">
         <v>29</v>
       </c>
@@ -2989,7 +2989,7 @@
       <c r="AG34" s="32"/>
       <c r="AH34" s="19"/>
     </row>
-    <row r="35" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B35" s="30" t="s">
         <v>30</v>
       </c>
@@ -3030,7 +3030,7 @@
       <c r="AG35" s="32"/>
       <c r="AH35" s="19"/>
     </row>
-    <row r="36" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B36" s="30" t="s">
         <v>31</v>
       </c>
@@ -3071,7 +3071,7 @@
       <c r="AG36" s="32"/>
       <c r="AH36" s="19"/>
     </row>
-    <row r="37" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B37" s="30" t="s">
         <v>32</v>
       </c>
@@ -3112,7 +3112,7 @@
       </c>
       <c r="AH37" s="28"/>
     </row>
-    <row r="38" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B38" s="30" t="s">
         <v>10</v>
       </c>
@@ -3191,7 +3191,7 @@
       <c r="AG38" s="32"/>
       <c r="AH38" s="28"/>
     </row>
-    <row r="39" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B39" s="30" t="s">
         <v>11</v>
       </c>
@@ -3240,7 +3240,7 @@
       <c r="AG39" s="32"/>
       <c r="AH39" s="28"/>
     </row>
-    <row r="40" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B40" s="30" t="s">
         <v>12</v>
       </c>
@@ -3319,7 +3319,7 @@
       <c r="AG40" s="32"/>
       <c r="AH40" s="28"/>
     </row>
-    <row r="41" spans="2:34" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>69</v>
       </c>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="AH41" s="28"/>
     </row>
-    <row r="42" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B42" s="35" t="s">
         <v>78</v>
       </c>
@@ -3399,7 +3399,7 @@
       <c r="AG42" s="33"/>
       <c r="AH42" s="33"/>
     </row>
-    <row r="43" spans="2:34" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B43" s="31" t="s">
         <v>73</v>
       </c>
@@ -3444,7 +3444,7 @@
       <c r="AG43" s="32"/>
       <c r="AH43" s="28"/>
     </row>
-    <row r="44" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B44" s="35" t="s">
         <v>89</v>
       </c>
@@ -3483,7 +3483,7 @@
       <c r="AG44" s="33"/>
       <c r="AH44" s="33"/>
     </row>
-    <row r="45" spans="2:34" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B45" s="31" t="s">
         <v>74</v>
       </c>
@@ -3526,7 +3526,7 @@
       <c r="AG45" s="32"/>
       <c r="AH45" s="28"/>
     </row>
-    <row r="46" spans="2:34" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B46" s="35" t="s">
         <v>90</v>
       </c>
@@ -3565,7 +3565,7 @@
       <c r="AG46" s="33"/>
       <c r="AH46" s="33"/>
     </row>
-    <row r="47" spans="2:34" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B47" s="38" t="s">
         <v>85</v>
       </c>
@@ -3626,7 +3626,7 @@
       </c>
       <c r="AH47" s="28"/>
     </row>
-    <row r="48" spans="2:34" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B48" s="38" t="s">
         <v>86</v>
       </c>
@@ -3679,7 +3679,7 @@
       <c r="AG48" s="32"/>
       <c r="AH48" s="28"/>
     </row>
-    <row r="49" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B49" s="35" t="s">
         <v>91</v>
       </c>
@@ -3718,7 +3718,7 @@
       <c r="AG49" s="33"/>
       <c r="AH49" s="33"/>
     </row>
-    <row r="50" spans="2:34" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B50" s="30" t="s">
         <v>10</v>
       </c>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="AH50" s="28"/>
     </row>
-    <row r="51" spans="2:34" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B51" s="30" t="s">
         <v>11</v>
       </c>
@@ -3848,7 +3848,7 @@
       <c r="AG51" s="32"/>
       <c r="AH51" s="28"/>
     </row>
-    <row r="52" spans="2:34" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B52" s="30" t="s">
         <v>12</v>
       </c>
@@ -3927,7 +3927,7 @@
       <c r="AG52" s="32"/>
       <c r="AH52" s="28"/>
     </row>
-    <row r="53" spans="2:34" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>69</v>
       </c>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="AH53" s="28"/>
     </row>
-    <row r="54" spans="2:34" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B54" s="35" t="s">
         <v>92</v>
       </c>
@@ -4009,7 +4009,7 @@
       <c r="AG54" s="33"/>
       <c r="AH54" s="33"/>
     </row>
-    <row r="55" spans="2:34" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>87</v>
       </c>
@@ -4068,7 +4068,7 @@
       <c r="AG55" s="32"/>
       <c r="AH55" s="28"/>
     </row>
-    <row r="56" spans="2:34" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B56" s="35" t="s">
         <v>93</v>
       </c>
@@ -4107,7 +4107,7 @@
       <c r="AG56" s="33"/>
       <c r="AH56" s="33"/>
     </row>
-    <row r="57" spans="2:34" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
         <v>94</v>
       </c>
@@ -4148,7 +4148,7 @@
       <c r="AG57" s="32"/>
       <c r="AH57" s="28"/>
     </row>
-    <row r="58" spans="2:34" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
         <v>95</v>
       </c>
@@ -4189,7 +4189,7 @@
       <c r="AG58" s="32"/>
       <c r="AH58" s="28"/>
     </row>
-    <row r="59" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B59" s="47" t="s">
         <v>96</v>
       </c>
@@ -4228,7 +4228,7 @@
       <c r="AG59" s="46"/>
       <c r="AH59" s="46"/>
     </row>
-    <row r="60" spans="2:34" s="22" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:34" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B60" s="20" t="s">
         <v>14</v>
       </c>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="D60" s="20"/>
     </row>
-    <row r="61" spans="2:34" s="22" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:34" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B61" s="20" t="s">
         <v>15</v>
       </c>
@@ -4246,7 +4246,7 @@
       </c>
       <c r="D61" s="20"/>
     </row>
-    <row r="62" spans="2:34" s="22" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:34" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B62" s="20" t="s">
         <v>14</v>
       </c>
@@ -4255,627 +4255,634 @@
       </c>
       <c r="D62" s="20"/>
     </row>
-    <row r="63" spans="2:34" s="22" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:34" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B63" s="20"/>
       <c r="C63" s="20" t="s">
         <v>47</v>
       </c>
       <c r="D63" s="20"/>
     </row>
-    <row r="64" spans="2:34" s="22" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="51" t="s">
+    <row r="64" spans="2:34" s="22" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="51"/>
-      <c r="G64" s="51"/>
-      <c r="H64" s="51"/>
-      <c r="I64" s="51"/>
-      <c r="J64" s="51"/>
-      <c r="K64" s="51"/>
-      <c r="L64" s="51"/>
-      <c r="M64" s="51"/>
-      <c r="N64" s="51"/>
-      <c r="O64" s="51"/>
-      <c r="P64" s="51"/>
-      <c r="Q64" s="51"/>
-      <c r="R64" s="51"/>
-      <c r="S64" s="51"/>
-      <c r="T64" s="51"/>
-      <c r="U64" s="51"/>
-      <c r="V64" s="51"/>
-      <c r="W64" s="51"/>
-      <c r="X64" s="51"/>
-      <c r="Y64" s="51"/>
-      <c r="Z64" s="51"/>
-      <c r="AA64" s="51"/>
-      <c r="AB64" s="51"/>
-      <c r="AC64" s="51"/>
-      <c r="AD64" s="51"/>
-    </row>
-    <row r="65" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="55"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="55"/>
+      <c r="F64" s="55"/>
+      <c r="G64" s="55"/>
+      <c r="H64" s="55"/>
+      <c r="I64" s="55"/>
+      <c r="J64" s="55"/>
+      <c r="K64" s="55"/>
+      <c r="L64" s="55"/>
+      <c r="M64" s="55"/>
+      <c r="N64" s="55"/>
+      <c r="O64" s="55"/>
+      <c r="P64" s="55"/>
+      <c r="Q64" s="55"/>
+      <c r="R64" s="55"/>
+      <c r="S64" s="55"/>
+      <c r="T64" s="55"/>
+      <c r="U64" s="55"/>
+      <c r="V64" s="55"/>
+      <c r="W64" s="55"/>
+      <c r="X64" s="55"/>
+      <c r="Y64" s="55"/>
+      <c r="Z64" s="55"/>
+      <c r="AA64" s="55"/>
+      <c r="AB64" s="55"/>
+      <c r="AC64" s="55"/>
+      <c r="AD64" s="55"/>
+    </row>
+    <row r="65" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B65" s="29"/>
       <c r="C65" s="29"/>
       <c r="D65" s="29"/>
     </row>
-    <row r="66" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="272" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="273" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="275" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="276" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="277" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="278" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="279" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="281" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="282" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="283" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="284" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="285" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="286" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="287" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="288" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="289" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="290" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="291" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="292" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="293" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="294" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="295" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="296" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="297" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="298" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="299" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="300" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="301" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="302" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="303" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="304" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="305" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="306" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="307" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="308" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="309" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="310" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="311" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="312" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="313" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="314" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="315" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="316" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="317" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="318" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="319" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="320" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="321" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="322" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="323" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="324" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="325" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="326" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="327" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="328" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="329" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="330" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="331" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="332" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="333" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="334" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="335" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="336" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="337" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="338" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="339" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="340" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="341" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="342" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="343" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="344" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="345" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="346" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="347" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="348" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="349" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="350" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="351" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="352" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="353" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="354" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="355" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="356" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="357" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="358" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="359" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="360" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="361" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="362" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="363" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="364" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="365" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="366" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="367" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="368" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="369" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="370" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="371" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="372" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="373" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="374" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="375" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="376" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="377" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="378" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="379" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="380" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="381" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="382" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="383" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="384" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="385" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="386" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="387" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="388" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="389" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="390" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="391" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="392" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="393" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="394" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="395" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="396" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="397" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="398" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="399" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="400" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="401" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="402" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="403" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="404" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="405" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="406" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="407" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="408" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="409" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="410" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="411" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="412" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="413" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="414" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="415" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="416" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="417" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="418" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="419" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="420" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="421" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="422" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="423" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="424" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="425" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="426" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="427" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="428" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="429" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="430" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="431" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="432" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="433" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="434" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="435" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="436" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="437" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="438" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="439" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="440" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="441" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="442" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="443" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="444" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="445" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="446" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="447" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="448" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="449" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="450" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="451" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="452" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="453" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="454" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="455" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="456" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="457" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="458" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="459" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="460" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="461" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="462" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="463" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="464" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="465" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="466" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="467" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="468" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="469" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="470" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="471" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="472" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="473" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="474" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="475" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="476" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="477" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="478" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="479" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="480" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="481" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="482" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="483" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="484" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="485" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="486" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="487" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="488" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="489" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="490" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="491" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="492" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="493" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="494" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="495" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="496" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="497" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="498" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="499" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="500" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="501" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="502" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="503" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="504" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="505" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="506" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="507" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="508" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="509" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="510" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="511" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="512" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="513" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="514" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="515" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="516" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="517" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="518" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="519" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="520" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="521" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="522" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="523" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="524" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="525" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="526" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="527" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="528" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="529" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="530" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="531" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="532" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="533" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="534" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="535" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="536" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="537" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="538" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="539" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="540" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="541" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="542" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="543" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="544" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="545" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="546" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="547" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="548" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="549" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="550" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="551" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="552" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="553" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="554" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="555" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="556" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="557" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="558" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="559" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="560" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="561" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="562" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="563" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="564" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="565" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="566" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="567" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="568" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="569" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="570" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="571" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="572" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="573" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="574" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="575" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="576" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="577" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="578" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="579" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="580" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="581" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="582" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="583" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="584" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="585" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="586" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="587" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="588" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="589" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="590" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="591" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="592" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="593" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="594" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="595" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="596" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="597" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="598" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="599" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="600" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="601" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="602" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="603" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="604" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="605" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="606" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="607" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="608" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="609" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="610" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="611" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="612" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="613" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="614" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="615" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="616" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="617" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="618" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="619" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="620" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="621" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="622" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="623" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="624" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="625" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="626" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="627" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="628" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="629" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="630" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="631" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="632" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="633" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="634" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="635" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="636" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="637" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="638" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="639" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="144" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="145" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="146" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="147" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="148" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="149" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="150" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="151" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="152" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="153" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="154" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="155" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="156" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="157" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="158" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="159" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="160" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="161" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="162" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="163" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="164" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="165" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="166" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="167" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="168" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="169" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="170" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="171" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="172" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="173" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="174" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="175" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="176" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="177" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="178" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="179" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="180" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="181" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="182" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="183" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="184" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="185" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="186" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="187" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="188" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="189" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="190" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="191" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="192" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="193" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="194" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="195" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="196" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="197" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="198" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="199" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="200" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="201" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="202" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="203" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="204" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="205" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="206" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="207" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="208" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="209" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="210" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="211" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="212" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="213" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="214" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="215" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="216" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="217" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="218" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="219" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="220" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="221" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="222" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="223" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="224" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="225" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="226" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="227" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="228" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="229" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="230" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="231" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="232" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="233" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="234" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="235" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="236" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="237" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="238" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="239" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="240" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="241" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="242" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="243" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="244" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="245" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="246" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="247" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="248" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="249" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="250" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="251" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="252" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="253" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="254" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="255" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="256" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="257" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="258" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="259" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="260" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="261" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="262" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="263" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="264" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="265" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="266" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="267" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="268" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="269" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="270" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="271" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="272" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="273" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="274" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="275" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="276" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="277" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="278" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="279" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="280" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="281" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="282" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="283" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="284" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="285" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="286" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="287" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="288" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="289" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="290" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="291" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="292" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="293" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="294" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="295" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="296" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="297" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="298" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="299" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="300" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="301" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="302" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="303" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="304" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="305" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="306" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="307" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="308" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="309" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="310" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="311" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="312" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="313" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="314" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="315" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="316" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="317" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="318" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="319" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="320" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="321" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="322" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="323" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="324" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="325" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="326" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="327" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="328" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="329" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="330" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="331" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="332" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="333" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="334" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="335" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="336" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="337" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="338" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="339" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="340" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="341" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="342" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="343" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="344" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="345" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="346" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="347" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="348" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="349" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="350" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="351" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="352" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="353" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="354" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="355" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="356" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="357" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="358" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="359" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="360" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="361" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="362" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="363" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="364" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="365" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="366" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="367" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="368" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="369" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="370" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="371" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="372" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="373" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="374" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="375" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="376" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="377" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="378" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="379" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="380" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="381" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="382" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="383" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="384" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="385" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="386" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="387" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="388" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="389" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="390" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="391" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="392" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="393" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="394" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="395" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="396" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="397" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="398" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="399" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="400" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="401" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="402" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="403" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="404" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="405" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="406" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="407" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="408" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="409" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="410" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="411" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="412" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="413" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="414" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="415" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="416" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="417" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="418" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="419" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="420" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="421" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="422" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="423" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="424" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="425" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="426" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="427" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="428" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="429" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="430" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="431" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="432" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="433" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="434" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="435" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="436" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="437" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="438" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="439" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="440" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="441" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="442" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="443" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="444" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="445" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="446" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="447" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="448" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="449" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="450" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="451" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="452" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="453" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="454" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="455" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="456" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="457" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="458" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="459" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="460" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="461" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="462" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="463" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="464" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="465" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="466" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="467" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="468" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="469" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="470" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="471" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="472" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="473" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="474" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="475" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="476" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="477" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="478" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="479" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="480" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="481" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="482" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="483" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="484" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="485" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="486" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="487" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="488" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="489" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="490" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="491" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="492" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="493" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="494" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="495" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="496" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="497" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="498" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="499" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="500" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="501" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="502" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="503" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="504" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="505" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="506" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="507" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="508" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="509" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="510" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="511" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="512" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="513" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="514" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="515" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="516" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="517" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="518" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="519" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="520" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="521" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="522" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="523" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="524" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="525" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="526" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="527" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="528" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="529" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="530" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="531" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="532" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="533" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="534" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="535" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="536" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="537" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="538" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="539" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="540" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="541" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="542" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="543" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="544" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="545" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="546" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="547" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="548" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="549" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="550" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="551" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="552" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="553" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="554" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="555" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="556" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="557" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="558" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="559" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="560" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="561" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="562" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="563" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="564" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="565" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="566" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="567" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="568" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="569" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="570" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="571" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="572" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="573" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="574" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="575" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="576" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="577" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="578" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="579" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="580" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="581" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="582" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="583" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="584" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="585" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="586" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="587" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="588" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="589" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="590" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="591" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="592" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="593" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="594" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="595" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="596" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="597" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="598" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="599" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="600" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="601" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="602" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="603" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="604" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="605" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="606" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="607" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="608" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="609" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="610" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="611" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="612" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="613" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="614" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="615" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="616" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="617" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="618" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="619" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="620" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="621" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="622" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="623" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="624" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="625" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="626" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="627" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="628" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="629" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="630" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="631" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="632" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="633" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="634" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="635" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="636" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="637" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="638" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="639" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B64:AD64"/>
+    <mergeCell ref="AC3:AH3"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="B3:D4"/>
     <mergeCell ref="B1:AH1"/>
     <mergeCell ref="B5:D6"/>
     <mergeCell ref="S6:W6"/>
@@ -4884,13 +4891,6 @@
     <mergeCell ref="AE6:AF6"/>
     <mergeCell ref="AG6:AH6"/>
     <mergeCell ref="E3:AB3"/>
-    <mergeCell ref="B64:AD64"/>
-    <mergeCell ref="AC3:AH3"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="B3:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
